--- a/data/Behavioral/description/PreInt_TxHx.xlsx
+++ b/data/Behavioral/description/PreInt_TxHx.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/data/Research/Healthy Brain Network/Data Sharing/Data Dictionaries/Public Data Dictionaries/all_data_dicts_09142017/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Data/Research/Healthy Brain Network/Data Sharing/Release4/Data Dictionaries/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1106,8 +1106,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="A88" sqref="A88"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="D73" sqref="D73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1949,10 +1949,10 @@
         <v>88</v>
       </c>
       <c r="D72" s="14" t="s">
-        <v>89</v>
+        <v>131</v>
       </c>
       <c r="E72" s="15" t="s">
-        <v>90</v>
+        <v>132</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
